--- a/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>3,150.47</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3,086.24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3,540.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3,534.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>3,791.34</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3,534.76</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3,540.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3,086.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3,150.47</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3791.34</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>3086.24</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>3420.688</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>3,150.47</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3,086.24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3,540.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3,534.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>3,791.34</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3,534.76</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3,540.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3,086.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3,150.47</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>3791.34</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>3086.24</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>3420.688</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>308.19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>336.16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>369.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>387.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>391.67</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>387.54</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>369.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>336.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>308.19</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>391.67</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>308.19</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>358.616</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>28.70</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>29.25</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>26.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>21.88</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>26.132</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>321.05</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>321.05</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>321.05</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>321.05</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>831.06</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>742.83</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>799.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>849.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>464.23</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>849.11</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>799.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>742.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>831.06</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>849.11</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>464.23</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>737.428</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,989.34</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,983.18</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2,344.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2,268.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>2,585.69</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2,268.86</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2,344.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,983.18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,989.34</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>2585.69</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1983.18</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>2234.302</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>4.85</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22.47</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>16.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>14.04</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>12.022</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,003.38</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,999.27</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,347.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,291.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,590.54</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,291.33</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,347.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,999.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,003.38</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2590.54</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1999.27</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2246.324</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,077.95</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,143.76</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,170.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1,192.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1,294.17</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1,192.13</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1,170.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,143.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,077.95</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1294.17</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1077.95</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>1175.778</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>925.43</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>855.51</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,176.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,099.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,296.37</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,099.20</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,176.22</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>855.51</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>925.43</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1296.37</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>855.51</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1070.546</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>925.43</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>855.51</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,176.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,099.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,296.37</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,099.20</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,176.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>855.51</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>925.43</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1296.37</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>855.51</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1070.546</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>323.39</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>298.61</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>409.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>378.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>462.64</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>378.25</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>409.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>298.61</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>323.39</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>462.64</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>298.61</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>374.46</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>602.04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>556.90</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>766.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>720.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>833.73</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>720.95</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>766.81</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>556.90</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>602.04</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>833.73</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>556.9</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>696.086</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>602.04</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>556.90</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>766.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>720.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>833.73</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>720.95</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>766.81</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>556.90</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>602.04</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>833.73</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>556.9</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>696.086</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>109.98</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>114.95</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>114.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>115.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>115.59</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>115.03</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>114.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>114.95</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>109.98</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>115.59</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>109.98</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>114.106</v>
       </c>
     </row>
     <row r="20"/>
@@ -1176,37 +1009,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>14.49</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>12.54</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>13.34</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>12.286</v>
       </c>
     </row>
     <row r="23">
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>14.37</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>12.42</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>10.97</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>12.184</v>
       </c>
     </row>
     <row r="24"/>
@@ -1266,37 +1081,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>14.49</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>12.54</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>13.34</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>12.286</v>
       </c>
     </row>
     <row r="27">
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>14.37</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>12.42</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>10.97</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>12.184</v>
       </c>
     </row>
     <row r="28"/>
